--- a/Output_testing/R1_201907/Country/HKD/MN/BAHRAIN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BAHRAIN_201907_HKD_MN.xlsx
@@ -810,136 +810,439 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>363.373598</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>42.63423708995708</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>264.989272</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>37.78177853741966</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>246.212192</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>27.39210984426404</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>139.682551</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>37.92051993860387</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-5.178991817207768</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>27.540049</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.231244606095558</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>91.185227</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>13.00105482156402</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>180.04488</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>20.0307267068941</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>98.07961899999999</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>26.62630458302677</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>499.205188619016</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>62.487853</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>7.331633213606195</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>46.901365</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>6.687127264279158</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>56.7233</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.310698311516363</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>28.213585</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.659323264592977</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>7.202711667389927</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>26.396879</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.097117688008002</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>18.557903</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.645958366438759</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>13.979319</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.555256214103351</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>12.696329</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.446754040106087</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>71.29650392031628</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>22.526115</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.64296507206789</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>18.003976</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.566980273922254</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>24.011236</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.671347867324731</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>11.493748</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.120281646368904</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-11.03831032551761</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.630898</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.07402259013760197</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.308957</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.3292076745900298</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0.908537</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.1010784441640409</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>11.154883</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.028287786742192</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.022567</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.3546345656579054</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>2.6157</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.3729426379205593</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.332518</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.2595021341174001</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>7.468703</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.02757680898175</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>359.9997413206934</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>34.586875</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.931345490663549</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>71.04627600000001</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>7.904187767508687</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>6.615818</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.796038636058232</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>104.8213599633194</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.302221</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.622103940576743</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>7.926906</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.130206535225106</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>6.852586</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.762378121507752</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.204646</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.4129387028189</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>23.62100944785272</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>6.192309</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.7265370172553787</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>8.620005000000001</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.229027565695</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>5.813948</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.6468254108425273</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>4.252735</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.15451730517936</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>16.64984789042077</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>334.797003</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>39.28137564608938</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>205.671728</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>29.3243708322819</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>290.918683</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>32.365889177757</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>43.49349</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.80745728752096</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-70.21845220713547</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1274,533 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>6.085931</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>15.91350308992431</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>36.364983</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>52.96283932334126</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>21.388608</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>47.98993451628854</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>7.97713</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>72.31580123006475</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>168.9660636916904</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>2.487617</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>6.504625309759223</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>2.580477</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>3.758269011938702</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>2.620188</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>5.878954373298395</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.665005</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>15.09392107525689</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-19.51310651405301</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.354585</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>3.541971242044172</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>2.44016</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.553907944993249</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>2.572368</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>5.77165993559731</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.107141</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>10.03666587979074</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>2.987273808006674</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.24653919874159</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.4177941998986125</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.2563825494100758</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.97487726367342</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>90.64821864580325</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.4974477312241087</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.4623331231570968</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.5303253641295538</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-71.60979728909962</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.12257144730088</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-47.72393538913363</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>26.9118</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>70.3690220042628</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>26.9118</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>39.19499534213712</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>17.65104</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>39.60389819404749</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>0.789362</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.064025146862302</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.3143488527831833</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.3933446287539761</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1832,439 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>363.373598</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>44.63715362275069</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>264.989272</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>41.88185697074374</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>246.212192</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>28.821202510651</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>139.682551</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>39.09116213520972</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-5.178991817207768</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>21.454118</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.635443979082434</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>54.820244</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>8.66440215100207</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>158.656272</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>18.5720475812056</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>90.10248900000001</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>25.21582675193948</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>572.2844190414339</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>62.487853</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.676066476125386</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>46.901365</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>7.412814284280334</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>56.7233</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.63993810823312</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>28.213585</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.895773793897286</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>7.202711667389927</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>26.396879</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.242617376632194</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>18.557903</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.933097756210056</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>13.979319</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.63639655935475</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>12.696329</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.55315858643622</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>71.29650392031628</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>22.526115</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.767129096095607</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>18.003976</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.845548961456458</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>24.011236</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.81071660044777</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>11.493748</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.216607682152386</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-11.03831032551761</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>0.630898</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.07750010210231664</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.308957</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.3649332899242712</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>0.908537</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.1063518774302587</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>11.154883</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.121773885360203</v>
+      </c>
+      <c r="K49" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3.022567</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.3712949654478108</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>2.6157</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4134143712745262</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.332518</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.2730407990427162</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>7.468703</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.090170016387568</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>359.9997413206934</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>34.586875</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>5.466495080657425</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>71.04627600000001</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>8.316562602324762</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>6.615818</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.851484041804469</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>104.8213599633194</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.302221</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.6513298011232361</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>7.926906</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.252856543235948</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>6.852586</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.8021526766133982</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.204646</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.456557452493624</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>23.62100944785272</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>6.192309</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.7606690459457698</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>8.620005000000001</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.362401631478485</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>5.813948</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.6805713857354162</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>4.252735</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.19015834270582</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>16.64984789042077</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>302.639117</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>37.17647300776822</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>173.375394</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>27.40217895973669</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>267.738345</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>31.34101929896121</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>40.439656</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>11.31732731161322</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-67.62664099062809</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2296,449 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>38.67745</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>10.84799014789464</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>83.196493</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>15.11482928249764</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>224.520015</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>19.38600196227565</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>99.270352</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>27.7395447338462</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>390.287395208664</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>48.205192</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>13.52026692280307</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>73.635411</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>13.37780748055749</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>166.677962</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>14.39167594212082</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>78.735198</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>22.00131764466029</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-12.85716353818749</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>115.35023</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>32.3526540296059</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>100.161195</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>18.19691321791601</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>148.467162</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>12.81927891313163</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>54.635184</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>15.26694627425032</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-48.91632952118694</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>25.544422</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.164527087221703</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>28.751037</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>5.223381422456992</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>12.797094</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.10495489409007</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>21.954814</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.134928836318348</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>370.1989029955704</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>10.524899</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.951952640610644</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>13.626338</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.475582385613422</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>30.443906</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.62865482819131</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>16.479924</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.605056593416588</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>38.02443244728162</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>105.654894</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>19.19498801073723</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>81.01786199999999</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>6.99542279877087</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>16.184651</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.522547179204005</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1.439706</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.1243102684680474</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>15.288427</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.272111422317129</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>49.855961</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>13.98326347113937</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>63.245283</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>11.49016768613372</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>29.278474</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.528026529912875</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>14.294157</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.994278246682562</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-14.28747977736816</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>6.594702</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.849637510340032</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>17.305909</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.1440731535816</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>20.681551</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.785732057201688</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>11.413934</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>3.18944504983893</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-6.769783008559926</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>20.873537</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>5.854468785499412</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>17.263294</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>3.136331018947708</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>15.757347</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.36055558281634</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>5.553084</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.551722331243528</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-44.68123554728238</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>40.876739</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>11.46483188395462</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>47.589737</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>8.645926341558189</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>427.074251</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>36.8753862230207</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>24.056105</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>6.722101688222091</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-29.44250347323158</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
